--- a/en/application_framework/application_framework/libraries/authorization/images/role_check/images.xlsx
+++ b/en/application_framework/application_framework/libraries/authorization/images/role_check/images.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nablarch\source\others\nablarch-document\ja\application_framework\application_framework\libraries\authorization\images\role_check\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nablarch\source\others\nablarch-document\en\application_framework\application_framework\libraries\authorization\images\role_check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDDE6C7-BAEE-4D76-B46A-0BC6BC60C71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89070BE5-A7A8-4BA2-A61C-0D8DDF3D64A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,10 +28,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -165,12 +161,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300" baseline="0">
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ユーザ</a:t>
+            <a:t>User</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -288,12 +288,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300" baseline="0">
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ロール</a:t>
+            <a:t>Role</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -486,12 +490,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300" baseline="0">
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>機能</a:t>
+            <a:t>Function</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -899,7 +907,7 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BB20" sqref="BB20"/>
+      <selection activeCell="CF25" sqref="CF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
